--- a/CustomNewsBiasDataset.xlsx
+++ b/CustomNewsBiasDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeromenewhouse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CE7633-E9A4-0348-B208-06AFA217F4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A022D2E-9F8A-C945-AD61-FCD107C21CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{CE2DD85C-1D3B-4548-B238-D5C129DD1CDA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
   <si>
     <t>Text</t>
   </si>
@@ -141,13 +141,94 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Dunn recounted his efforts to repel the rioting mob that day.</t>
+  </si>
+  <si>
+    <t>He told North Carolina Democrats that all of the police who responded Jan. 6 are heroes.</t>
+  </si>
+  <si>
+    <t>His increasing fame has made him a popular surrogate for candidates — in the same league as some Democratic governors and members of Congress. </t>
+  </si>
+  <si>
+    <t>That same week, he was on stage talking to Democratic activists in Nevada, and here, his remarks were a little spicier.  </t>
+  </si>
+  <si>
+    <t>Crime is a focal point of former President Donald Trump's bid for the White House, and he and Vice President Kamala Harris have both been working to assume the mantle of the tough-on-crime candidate.</t>
+  </si>
+  <si>
+    <t>The Republican presidential nominee repeatedly casts himself as the "law and order" candidate and while on the campaign trail has called for police officers to be entitled to "immunity from prosecution." </t>
+  </si>
+  <si>
+    <t>The former president said he will condition Justice Department grants and federal funding on the use of "stop and frisk" and other tactics by local law enforcement agencies.</t>
+  </si>
+  <si>
+    <t>The Republican presidential nominee has claimed they were "convicted by a very tough system" and called Jan. 6 rioters "hostages" and "political prisoners."</t>
+  </si>
+  <si>
+    <t>Harris has played up her experience as a former prosecutor, highlighting her work cracking down on violent offenders, drug traffickers and banks over their mortgage foreclosure practices.</t>
+  </si>
+  <si>
+    <t>She has also sought to draw distinctions between her background in law enforcement with Trump, who was convicted in May and faces federal charges in two separate cases.</t>
+  </si>
+  <si>
+    <t>Sabrina Singh, who was serving as press secretary to Harris at the time, said she has backed boosting funding to police departments and for community policing.</t>
+  </si>
+  <si>
+    <t>"It's inflation, stupid!" wrote Bernard Yaros, U.S. lead economist at Oxford Economics, in an October 24 report, borrowing from political strategist James Carville's famous coinage.</t>
+  </si>
+  <si>
+    <t>Inflation across the country has cooled considerably from its peak of 9.1% in June of 2022, with the Consumer Price Index (CPI) down to a three-year low of 2.4% in September, close to the Federal Reserve's annual goal of 2%. </t>
+  </si>
+  <si>
+    <t>In an October 23-25 CBS News poll, about 63% of White people without a college education said they planned to vote for Trump, compared with 48% of those with a postsecondary degree.</t>
+  </si>
+  <si>
+    <t>U.S. State Department spokesperson Matthew Miller said in a briefing on Monday that the Biden administration was deeply concerned about a vote by Israel's parliament to pass two laws that could prevent the U.N. agency for Palestinian refugees — the largest aid provider in Gaza — from operating in the Palestinian territories.</t>
+  </si>
+  <si>
+    <t>The Knesset vote prompted outcry from the United Nations, as well as from governments around the world.</t>
+  </si>
+  <si>
+    <t>"There's nobody that can replace them right now in the middle of the crisis. So we continue to urge the government of Israel to pause the implementation of this legislation ... and we will consider next steps based on what happens in the days ahead."</t>
+  </si>
+  <si>
+    <t>The war between Israel and Hamas began when Hamas-led militants stormed into Israel on Oct. 7, 2023, killing some 1,200 people, mostly civilians, and abducting around 250.</t>
+  </si>
+  <si>
+    <t>MSNBC’s star morning host Mika Brzezinski was roasted online for her 'hysterical' reaction to Sunday night's Donald Trump rally at Madison Square Garden in New York. </t>
+  </si>
+  <si>
+    <t>'If you thought the unhinged hysteria on The View couldn't get any crazier, they brought on MSNBC banshee Mika Brzezinski who warned: "These are the final hours!"</t>
+  </si>
+  <si>
+    <t>Brzezinski was so riled up that she continued sounding a warning how she believes a second Trump term would be a 'descent into fascism.' </t>
+  </si>
+  <si>
+    <t>The jury convicted Trump of 34 felony counts of falsifying business records related to the payments.  </t>
+  </si>
+  <si>
+    <t>Daniels’ lawyer declined the proposal, Maddow reported. Daniels’ lawyer told MSNBC that they ultimately settled on $627,500 but that she did not agree to remain silent.</t>
+  </si>
+  <si>
+    <t>Trump’s historic conviction in May was the first time a former president has been found guilty of a crime.</t>
+  </si>
+  <si>
+    <t>A wealthy and powerful white guy wants voters to know he’s “so over” people getting offended by racist rhetoric.</t>
+  </si>
+  <si>
+    <t>Vice President Kamala Harris and her campaign probably didn’t expect to start the week focusing on Donald Trump’s event at Madison Square Garden, but Democrats also didn’t want to miss an unexpected opportunity: As the former Republican president and his allies held a hate rally, it became necessary and important for their opponents to take full advantage.</t>
+  </si>
+  <si>
+    <t>in theory, it would’ve been incredibly easy for the Ohio senator to simply say, “Of course those jokes were offensive, and we reject racism categorically.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,6 +263,22 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -204,7 +301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -216,6 +313,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -551,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C37FD09-CA88-7D4D-9FB8-DD1777200A77}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -826,6 +932,222 @@
         <v>34</v>
       </c>
     </row>
+    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A11" r:id="rId1" tooltip="https://x.com/RyanGirdusky/status/1851113003552248261" display="https://x.com/RyanGirdusky/status/1851113003552248261" xr:uid="{3693AD03-13EE-3C44-8CFB-AB5AC213FDC7}"/>
@@ -833,6 +1155,11 @@
     <hyperlink ref="A23" r:id="rId3" display="https://www.foxnews.com/category/us/us-regions/midwest/ohio" xr:uid="{CDB532D3-3146-4F48-8A16-6B78D85F8A25}"/>
     <hyperlink ref="A25" r:id="rId4" display="https://www.foxnews.com/politics/swing-state-official-warns-village-struggling-financial-losses-after-influx-illegal-immigrants" xr:uid="{890DD7A0-258D-2043-A619-9D915759B224}"/>
     <hyperlink ref="A27" r:id="rId5" display="https://www.foxnews.com/category/person/michael-bloomberg" xr:uid="{765F2527-2C59-6845-8D12-21754614DBD0}"/>
+    <hyperlink ref="A42" r:id="rId6" display="https://www.cbsnews.com/sacramento/news/what-to-know-about-kamala-harris-record-as-california-attorney-general/" xr:uid="{E56FA592-BE3C-0041-ABB3-AF35FCE0B6DC}"/>
+    <hyperlink ref="A46" r:id="rId7" display="https://www.cbsnews.com/news/us-inflation-report-cpi-september-2024-federal-reserve/" xr:uid="{1876851F-4707-E043-B711-41EFEAB76F8B}"/>
+    <hyperlink ref="A51" r:id="rId8" display="https://www.cbsnews.com/israel-gaza-conflict/" xr:uid="{B991AF08-6066-0D4A-BC56-172A7A4B22D7}"/>
+    <hyperlink ref="A52" r:id="rId9" display="https://www.dailymail.co.uk/news/donald_trump/index.html" xr:uid="{F8D64C7E-B929-7045-852E-47D4EB0E70E6}"/>
+    <hyperlink ref="A55" r:id="rId10" display="https://www.nbcnews.com/politics/donald-trump/donald-trump-verdict-hush-money-trial-rcna152492" xr:uid="{081F2C4C-CC90-A746-A6CA-5B96AF2D934D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
